--- a/Modelagens/Modelo-Físico-carometro.xlsx
+++ b/Modelagens/Modelo-Físico-carometro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48395996888.INFOSCS\Documents\Batata\Projeto_Carometro\Banco de Dados\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2A338-A690-450A-99A8-2F412520ACF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F8E51-5067-4ADB-9B85-BD5CA4D76646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{5A179BD2-6D4D-4D8D-B3C3-5F26E31B0FBB}"/>
   </bookViews>
@@ -304,13 +304,13 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -639,10 +639,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -695,13 +695,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -809,10 +809,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -886,12 +886,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -962,7 +962,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,18 +980,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1115,8 +1115,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="8"/>
+    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Modelagens/Modelo-Físico-carometro.xlsx
+++ b/Modelagens/Modelo-Físico-carometro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48395996888.INFOSCS\Documents\Batata\Projeto_Carometro\Banco de Dados\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F8E51-5067-4ADB-9B85-BD5CA4D76646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3EF1F-EB02-4EBC-99EE-720FDE2ACB56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{5A179BD2-6D4D-4D8D-B3C3-5F26E31B0FBB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="5" xr2:uid="{5A179BD2-6D4D-4D8D-B3C3-5F26E31B0FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="tipoUsuario" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="grade" sheetId="3" r:id="rId3"/>
     <sheet name="turma" sheetId="4" r:id="rId4"/>
     <sheet name="aluno" sheetId="5" r:id="rId5"/>
+    <sheet name="fotoAluno" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>tipoUsuario</t>
   </si>
@@ -172,15 +173,6 @@
     <t>33333-3333</t>
   </si>
   <si>
-    <t>foto1.png</t>
-  </si>
-  <si>
-    <t>foto2.png</t>
-  </si>
-  <si>
-    <t>foto3.png</t>
-  </si>
-  <si>
     <t>Sem comorbidade</t>
   </si>
   <si>
@@ -197,6 +189,21 @@
   </si>
   <si>
     <t>33.333.333-3</t>
+  </si>
+  <si>
+    <t>idFotoAluno</t>
+  </si>
+  <si>
+    <t>binario</t>
+  </si>
+  <si>
+    <t>mimeType</t>
+  </si>
+  <si>
+    <t>nomeArquivo</t>
+  </si>
+  <si>
+    <t>data_inclusao</t>
   </si>
 </sst>
 </file>
@@ -281,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +316,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90343B55-8CBF-4040-9C42-C80AAC1A5CE5}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,9 +983,8 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -991,7 +1001,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1010,20 +1020,18 @@
         <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -1036,22 +1044,19 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7">
+        <v>36892</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="7">
-        <v>36892</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1066,22 +1071,19 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="7">
         <v>37289</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1096,22 +1098,19 @@
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <v>37683</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1123,9 +1122,147 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF93057-E4AE-4240-92F9-3AB5B11180BF}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>